--- a/data/processed/4th/MASTER_human-eval_4th_DIFFS.xlsx
+++ b/data/processed/4th/MASTER_human-eval_4th_DIFFS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t xml:space="preserve">Article not about coalition breakdown at all, finds one mentions in a quote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satirical</t>
   </si>
 </sst>
 </file>
@@ -11822,6 +11825,490 @@
       <c r="AA138"/>
       <c r="AB138"/>
     </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" t="s">
+        <v>92</v>
+      </c>
+      <c r="C139" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" t="n">
+        <v>59</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" t="s">
+        <v>32</v>
+      </c>
+      <c r="I139" t="s">
+        <v>46</v>
+      </c>
+      <c r="J139" t="s">
+        <v>46</v>
+      </c>
+      <c r="K139" t="s">
+        <v>32</v>
+      </c>
+      <c r="L139" t="s">
+        <v>32</v>
+      </c>
+      <c r="M139" t="s">
+        <v>31</v>
+      </c>
+      <c r="N139" t="s">
+        <v>32</v>
+      </c>
+      <c r="O139" t="s">
+        <v>32</v>
+      </c>
+      <c r="P139" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>32</v>
+      </c>
+      <c r="R139" t="s">
+        <v>32</v>
+      </c>
+      <c r="S139" t="s">
+        <v>32</v>
+      </c>
+      <c r="T139" t="s">
+        <v>34</v>
+      </c>
+      <c r="U139" t="s">
+        <v>121</v>
+      </c>
+      <c r="V139" t="s">
+        <v>32</v>
+      </c>
+      <c r="W139" t="s">
+        <v>31</v>
+      </c>
+      <c r="X139" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" t="n">
+        <v>60</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" t="s">
+        <v>32</v>
+      </c>
+      <c r="I140" t="s">
+        <v>46</v>
+      </c>
+      <c r="J140" t="s">
+        <v>46</v>
+      </c>
+      <c r="K140" t="s">
+        <v>32</v>
+      </c>
+      <c r="L140" t="s">
+        <v>32</v>
+      </c>
+      <c r="M140" t="s">
+        <v>31</v>
+      </c>
+      <c r="N140" t="s">
+        <v>32</v>
+      </c>
+      <c r="O140" t="s">
+        <v>32</v>
+      </c>
+      <c r="P140" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>32</v>
+      </c>
+      <c r="R140" t="s">
+        <v>32</v>
+      </c>
+      <c r="S140" t="s">
+        <v>32</v>
+      </c>
+      <c r="T140" t="s">
+        <v>34</v>
+      </c>
+      <c r="U140" t="s">
+        <v>81</v>
+      </c>
+      <c r="V140" t="s">
+        <v>32</v>
+      </c>
+      <c r="W140" t="s">
+        <v>31</v>
+      </c>
+      <c r="X140" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" t="s">
+        <v>92</v>
+      </c>
+      <c r="C141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" t="n">
+        <v>132</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>33</v>
+      </c>
+      <c r="G141" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" t="s">
+        <v>33</v>
+      </c>
+      <c r="J141" t="s">
+        <v>33</v>
+      </c>
+      <c r="K141" t="s">
+        <v>33</v>
+      </c>
+      <c r="L141" t="s">
+        <v>33</v>
+      </c>
+      <c r="M141" t="s">
+        <v>33</v>
+      </c>
+      <c r="N141" t="s">
+        <v>33</v>
+      </c>
+      <c r="O141" t="s">
+        <v>33</v>
+      </c>
+      <c r="P141" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>33</v>
+      </c>
+      <c r="R141" t="s">
+        <v>33</v>
+      </c>
+      <c r="S141" t="s">
+        <v>33</v>
+      </c>
+      <c r="T141" t="s">
+        <v>163</v>
+      </c>
+      <c r="U141" t="s">
+        <v>159</v>
+      </c>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+      <c r="AB141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142" t="s">
+        <v>43</v>
+      </c>
+      <c r="D142" t="n">
+        <v>93</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>33</v>
+      </c>
+      <c r="G142" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" t="s">
+        <v>33</v>
+      </c>
+      <c r="J142" t="s">
+        <v>33</v>
+      </c>
+      <c r="K142" t="s">
+        <v>33</v>
+      </c>
+      <c r="L142" t="s">
+        <v>33</v>
+      </c>
+      <c r="M142" t="s">
+        <v>33</v>
+      </c>
+      <c r="N142" t="s">
+        <v>33</v>
+      </c>
+      <c r="O142" t="s">
+        <v>33</v>
+      </c>
+      <c r="P142" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>33</v>
+      </c>
+      <c r="R142" t="s">
+        <v>33</v>
+      </c>
+      <c r="S142" t="s">
+        <v>33</v>
+      </c>
+      <c r="T142" t="s">
+        <v>34</v>
+      </c>
+      <c r="U142" t="s">
+        <v>44</v>
+      </c>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+      <c r="AB142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" t="n">
+        <v>156</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s">
+        <v>32</v>
+      </c>
+      <c r="H143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143" t="s">
+        <v>32</v>
+      </c>
+      <c r="J143" t="s">
+        <v>32</v>
+      </c>
+      <c r="K143" t="s">
+        <v>31</v>
+      </c>
+      <c r="L143" t="s">
+        <v>32</v>
+      </c>
+      <c r="M143" t="s">
+        <v>32</v>
+      </c>
+      <c r="N143" t="s">
+        <v>32</v>
+      </c>
+      <c r="O143" t="s">
+        <v>32</v>
+      </c>
+      <c r="P143" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>32</v>
+      </c>
+      <c r="R143" t="s">
+        <v>32</v>
+      </c>
+      <c r="S143" t="s">
+        <v>32</v>
+      </c>
+      <c r="T143" t="s">
+        <v>34</v>
+      </c>
+      <c r="U143" t="s">
+        <v>80</v>
+      </c>
+      <c r="V143" t="s">
+        <v>46</v>
+      </c>
+      <c r="W143" t="s">
+        <v>32</v>
+      </c>
+      <c r="X143" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" t="n">
+        <v>31</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s">
+        <v>32</v>
+      </c>
+      <c r="H144" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" t="s">
+        <v>32</v>
+      </c>
+      <c r="J144" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" t="s">
+        <v>31</v>
+      </c>
+      <c r="L144" t="s">
+        <v>33</v>
+      </c>
+      <c r="M144" t="s">
+        <v>32</v>
+      </c>
+      <c r="N144" t="s">
+        <v>32</v>
+      </c>
+      <c r="O144" t="s">
+        <v>31</v>
+      </c>
+      <c r="P144" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>32</v>
+      </c>
+      <c r="R144" t="s">
+        <v>31</v>
+      </c>
+      <c r="S144" t="s">
+        <v>33</v>
+      </c>
+      <c r="T144" t="s">
+        <v>34</v>
+      </c>
+      <c r="U144" t="s">
+        <v>101</v>
+      </c>
+      <c r="V144" t="s">
+        <v>46</v>
+      </c>
+      <c r="W144" t="s">
+        <v>32</v>
+      </c>
+      <c r="X144" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y144"/>
+      <c r="Z144" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB144"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/processed/4th/MASTER_human-eval_4th_DIFFS.xlsx
+++ b/data/processed/4th/MASTER_human-eval_4th_DIFFS.xlsx
@@ -10285,7 +10285,7 @@
         <v>34</v>
       </c>
       <c r="U119" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="V119"/>
       <c r="W119"/>
@@ -10361,7 +10361,7 @@
         <v>34</v>
       </c>
       <c r="U120" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="V120" t="s">
         <v>46</v>
@@ -10441,7 +10441,7 @@
         <v>34</v>
       </c>
       <c r="U121" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="V121" t="s">
         <v>32</v>
@@ -10523,7 +10523,7 @@
         <v>154</v>
       </c>
       <c r="U122" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="V122"/>
       <c r="W122"/>
@@ -10595,7 +10595,7 @@
         <v>34</v>
       </c>
       <c r="U123" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="V123" t="s">
         <v>46</v>
@@ -10673,7 +10673,7 @@
         <v>34</v>
       </c>
       <c r="U124" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="V124" t="s">
         <v>88</v>
@@ -10759,7 +10759,7 @@
         <v>155</v>
       </c>
       <c r="U125" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="V125" t="s">
         <v>46</v>
@@ -11491,7 +11491,7 @@
         <v>34</v>
       </c>
       <c r="U134" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="V134" t="s">
         <v>32</v>
@@ -11729,7 +11729,7 @@
         <v>161</v>
       </c>
       <c r="U137" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="V137" t="s">
         <v>32</v>
@@ -11815,7 +11815,7 @@
         <v>162</v>
       </c>
       <c r="U138" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="V138"/>
       <c r="W138"/>
@@ -11973,7 +11973,7 @@
         <v>34</v>
       </c>
       <c r="U140" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="V140" t="s">
         <v>32</v>
